--- a/database/TestCase_practice.xlsx
+++ b/database/TestCase_practice.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -134,20 +134,8 @@
 срок. Пишим описание и комментарий </t>
   </si>
   <si>
-    <t>Выбираем категорию, пишим название заявки,
-описываем, для чего мы оставляем заявку, выбираем
-приоритет, выставляем срок, нажимаем кнопку "Отправить
-заявку"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Появится окно с просьбой заполнить поле Категория,
 Название, Срок</t>
-  </si>
-  <si>
-    <t>Всё заявки</t>
-  </si>
-  <si>
-    <t>Нажимаем кнопку "Все заявки"</t>
   </si>
   <si>
     <t>Введён корректный логин и пароль</t>
@@ -288,12 +276,24 @@
   </si>
   <si>
     <t xml:space="preserve"> - Фотографии меняются по нажатию кнопки</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Выбрана категория заявки
+ - Заполнено поле "Название"
+ - Указан срок выполнения заявки
+ - Нажата кнопка "Отправить заявку"</t>
+  </si>
+  <si>
+    <t>Всё мои заявки</t>
+  </si>
+  <si>
+    <t>Нажимаем кнопку "Все мои заявки"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -503,29 +503,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,22 +907,22 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>40</v>
+      <c r="B7" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="13" t="s">
         <v>18</v>
       </c>
@@ -931,7 +931,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="22">
         <v>7</v>
       </c>
       <c r="B9" s="26" t="s">
@@ -945,7 +945,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="27"/>
       <c r="C10" s="11" t="s">
         <v>28</v>
@@ -983,27 +983,27 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="22">
         <v>10</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="27"/>
       <c r="C14" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1011,13 +1011,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1025,32 +1025,32 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>13</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
-        <v>13</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="18" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="12" t="s">
         <v>18</v>
       </c>
@@ -1063,37 +1063,37 @@
         <v>14</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>15</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
-        <v>15</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="21" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="27"/>
       <c r="C21" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1101,37 +1101,37 @@
         <v>16</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>17</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
-        <v>17</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="27"/>
       <c r="C24" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1139,13 +1139,13 @@
         <v>18</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1153,13 +1153,13 @@
         <v>20</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="D26" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1167,13 +1167,13 @@
         <v>21</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1181,13 +1181,13 @@
         <v>22</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1195,13 +1195,13 @@
         <v>23</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -1236,18 +1236,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
